--- a/game_history.xlsx
+++ b/game_history.xlsx
@@ -1,43 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,26 +50,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -330,13 +404,364 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10.85546875" customWidth="1" min="1" max="1"/>
+    <col width="22.140625" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="14.140625" customWidth="1" min="4" max="4"/>
+    <col width="14.85546875" customWidth="1" min="5" max="5"/>
+    <col width="15.28515625" customWidth="1" min="6" max="6"/>
+    <col width="9.140625" customWidth="1" min="7" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customFormat="1" customHeight="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Gracz</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Data rozegranej gry</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Słowo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ilość zyc</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Ilość prob</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bartek</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>21.08.2024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>KRAWIEC</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Wygrana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Janek</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>21.08.2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>WISNIA</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Przegrana</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bartek</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>21.08.2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>POLICJANT</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Wygrana</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>21.08.2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PAPRYKA</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Wygrana</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>da</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>21.08.2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ZABA</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Wygrana</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>21.08.2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PELIKAN</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Wygrana</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>21.08.2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>HARNAS</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Wygrana</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Tomasz</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>21.08.2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>HARNAS</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Wygrana</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>kukson</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>21.08.2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>HARNAS</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Przegrana</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Jazin</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>21.08.2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>HARNAS</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Wygrana</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>OFICJALNY</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>21.08.2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PELIKAN</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Przegrana</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>